--- a/Selenium_Framework/src/test/resources/externalData/Via.com.xlsx
+++ b/Selenium_Framework/src/test/resources/externalData/Via.com.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Mangalore</t>
+    <t>Goa</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,14 +366,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -406,6 +405,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>